--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3852,28 +3852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2087.767237803146</v>
+        <v>2449.908359387257</v>
       </c>
       <c r="AB2" t="n">
-        <v>2856.575240552295</v>
+        <v>3352.072699642585</v>
       </c>
       <c r="AC2" t="n">
-        <v>2583.947708822514</v>
+        <v>3032.155585852152</v>
       </c>
       <c r="AD2" t="n">
-        <v>2087767.237803146</v>
+        <v>2449908.359387257</v>
       </c>
       <c r="AE2" t="n">
-        <v>2856575.240552295</v>
+        <v>3352072.699642585</v>
       </c>
       <c r="AF2" t="n">
         <v>2.163465099962447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.54629629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>2583947.708822514</v>
+        <v>3032155.585852152</v>
       </c>
     </row>
     <row r="3">
@@ -3958,28 +3958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1296.3868421193</v>
+        <v>1560.608585581144</v>
       </c>
       <c r="AB3" t="n">
-        <v>1773.773669938654</v>
+        <v>2135.293515983785</v>
       </c>
       <c r="AC3" t="n">
-        <v>1604.487200386689</v>
+        <v>1931.504099721564</v>
       </c>
       <c r="AD3" t="n">
-        <v>1296386.8421193</v>
+        <v>1560608.585581144</v>
       </c>
       <c r="AE3" t="n">
-        <v>1773773.669938654</v>
+        <v>2135293.515983785</v>
       </c>
       <c r="AF3" t="n">
         <v>3.044093303494862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1604487.200386689</v>
+        <v>1931504.099721564</v>
       </c>
     </row>
     <row r="4">
@@ -4064,28 +4064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1123.091854590106</v>
+        <v>1357.8807144332</v>
       </c>
       <c r="AB4" t="n">
-        <v>1536.663822765933</v>
+        <v>1857.912298956709</v>
       </c>
       <c r="AC4" t="n">
-        <v>1390.006784242373</v>
+        <v>1680.595756740569</v>
       </c>
       <c r="AD4" t="n">
-        <v>1123091.854590106</v>
+        <v>1357880.7144332</v>
       </c>
       <c r="AE4" t="n">
-        <v>1536663.822765933</v>
+        <v>1857912.298956709</v>
       </c>
       <c r="AF4" t="n">
         <v>3.380261661449413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.43518518518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>1390006.784242372</v>
+        <v>1680595.756740569</v>
       </c>
     </row>
     <row r="5">
@@ -4170,28 +4170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1033.6746858857</v>
+        <v>1258.74234426615</v>
       </c>
       <c r="AB5" t="n">
-        <v>1414.319307737493</v>
+        <v>1722.266807217939</v>
       </c>
       <c r="AC5" t="n">
-        <v>1279.338658016641</v>
+        <v>1557.896080353704</v>
       </c>
       <c r="AD5" t="n">
-        <v>1033674.6858857</v>
+        <v>1258742.34426615</v>
       </c>
       <c r="AE5" t="n">
-        <v>1414319.307737493</v>
+        <v>1722266.807217939</v>
       </c>
       <c r="AF5" t="n">
         <v>3.567534151298236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.99305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1279338.658016641</v>
+        <v>1557896.080353704</v>
       </c>
     </row>
     <row r="6">
@@ -4276,28 +4276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>987.8788538495299</v>
+        <v>1203.192156378413</v>
       </c>
       <c r="AB6" t="n">
-        <v>1351.659429976086</v>
+        <v>1646.260589448609</v>
       </c>
       <c r="AC6" t="n">
-        <v>1222.658951045093</v>
+        <v>1489.143789332882</v>
       </c>
       <c r="AD6" t="n">
-        <v>987878.85384953</v>
+        <v>1203192.156378413</v>
       </c>
       <c r="AE6" t="n">
-        <v>1351659.429976086</v>
+        <v>1646260.589448609</v>
       </c>
       <c r="AF6" t="n">
         <v>3.682528410090273e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.61574074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>1222658.951045093</v>
+        <v>1489143.789332882</v>
       </c>
     </row>
     <row r="7">
@@ -4382,28 +4382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>952.1229591806984</v>
+        <v>1167.402096290801</v>
       </c>
       <c r="AB7" t="n">
-        <v>1302.736637451449</v>
+        <v>1597.291050290723</v>
       </c>
       <c r="AC7" t="n">
-        <v>1178.405281175436</v>
+        <v>1444.847834263045</v>
       </c>
       <c r="AD7" t="n">
-        <v>952122.9591806985</v>
+        <v>1167402.096290801</v>
       </c>
       <c r="AE7" t="n">
-        <v>1302736.637451449</v>
+        <v>1597291.050290723</v>
       </c>
       <c r="AF7" t="n">
         <v>3.762264995196073e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.71296296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>1178405.281175436</v>
+        <v>1444847.834263045</v>
       </c>
     </row>
     <row r="8">
@@ -4488,28 +4488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>931.4044688257229</v>
+        <v>1136.861930276553</v>
       </c>
       <c r="AB8" t="n">
-        <v>1274.388684912486</v>
+        <v>1555.504647812995</v>
       </c>
       <c r="AC8" t="n">
-        <v>1152.76281744019</v>
+        <v>1407.049467390207</v>
       </c>
       <c r="AD8" t="n">
-        <v>931404.4688257229</v>
+        <v>1136861.930276553</v>
       </c>
       <c r="AE8" t="n">
-        <v>1274388.684912486</v>
+        <v>1555504.647812995</v>
       </c>
       <c r="AF8" t="n">
         <v>3.819626518154836e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.08796296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>1152762.81744019</v>
+        <v>1407049.467390207</v>
       </c>
     </row>
     <row r="9">
@@ -4594,28 +4594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>903.2282354209193</v>
+        <v>1108.753016679454</v>
       </c>
       <c r="AB9" t="n">
-        <v>1235.836719320345</v>
+        <v>1517.044792151697</v>
       </c>
       <c r="AC9" t="n">
-        <v>1117.89019733614</v>
+        <v>1372.260166374476</v>
       </c>
       <c r="AD9" t="n">
-        <v>903228.2354209193</v>
+        <v>1108753.016679454</v>
       </c>
       <c r="AE9" t="n">
-        <v>1235836.719320345</v>
+        <v>1517044.792151697</v>
       </c>
       <c r="AF9" t="n">
         <v>3.867088771194003e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.59027777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1117890.19733614</v>
+        <v>1372260.166374476</v>
       </c>
     </row>
     <row r="10">
@@ -4700,28 +4700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>888.6430244636183</v>
+        <v>1094.066320495667</v>
       </c>
       <c r="AB10" t="n">
-        <v>1215.880590234472</v>
+        <v>1496.949806501733</v>
       </c>
       <c r="AC10" t="n">
-        <v>1099.838653201619</v>
+        <v>1354.083017951456</v>
       </c>
       <c r="AD10" t="n">
-        <v>888643.0244636183</v>
+        <v>1094066.320495667</v>
       </c>
       <c r="AE10" t="n">
-        <v>1215880.590234471</v>
+        <v>1496949.806501733</v>
       </c>
       <c r="AF10" t="n">
         <v>3.894210058644954e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.30092592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>1099838.653201619</v>
+        <v>1354083.017951456</v>
       </c>
     </row>
     <row r="11">
@@ -4806,28 +4806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>863.6659992775074</v>
+        <v>1069.156615117261</v>
       </c>
       <c r="AB11" t="n">
-        <v>1181.705922466252</v>
+        <v>1462.867248664355</v>
       </c>
       <c r="AC11" t="n">
-        <v>1068.925567760751</v>
+        <v>1323.253251598907</v>
       </c>
       <c r="AD11" t="n">
-        <v>863665.9992775073</v>
+        <v>1069156.615117261</v>
       </c>
       <c r="AE11" t="n">
-        <v>1181705.922466252</v>
+        <v>1462867.248664355</v>
       </c>
       <c r="AF11" t="n">
         <v>3.924721507027275e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>39.98842592592592</v>
       </c>
       <c r="AH11" t="n">
-        <v>1068925.567760751</v>
+        <v>1323253.251598907</v>
       </c>
     </row>
     <row r="12">
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>855.5899644150383</v>
+        <v>1061.080580254792</v>
       </c>
       <c r="AB12" t="n">
-        <v>1170.655935277909</v>
+        <v>1451.817261476013</v>
       </c>
       <c r="AC12" t="n">
-        <v>1058.930175840909</v>
+        <v>1313.257859679065</v>
       </c>
       <c r="AD12" t="n">
-        <v>855589.9644150382</v>
+        <v>1061080.580254792</v>
       </c>
       <c r="AE12" t="n">
-        <v>1170655.935277909</v>
+        <v>1451817.261476013</v>
       </c>
       <c r="AF12" t="n">
         <v>3.937468512129223e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>40</v>
+        <v>39.86111111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1058930.175840909</v>
+        <v>1313257.859679065</v>
       </c>
     </row>
     <row r="13">
@@ -5018,28 +5018,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>852.6799174302372</v>
+        <v>1058.170533269991</v>
       </c>
       <c r="AB13" t="n">
-        <v>1166.674280611092</v>
+        <v>1447.835606809195</v>
       </c>
       <c r="AC13" t="n">
-        <v>1055.328524707206</v>
+        <v>1309.656208545362</v>
       </c>
       <c r="AD13" t="n">
-        <v>852679.9174302372</v>
+        <v>1058170.533269991</v>
       </c>
       <c r="AE13" t="n">
-        <v>1166674.280611092</v>
+        <v>1447835.606809196</v>
       </c>
       <c r="AF13" t="n">
         <v>3.94533368549e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>40</v>
+        <v>39.78009259259259</v>
       </c>
       <c r="AH13" t="n">
-        <v>1055328.524707206</v>
+        <v>1309656.208545362</v>
       </c>
     </row>
     <row r="14">
@@ -5124,28 +5124,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>854.2123523571913</v>
+        <v>1059.702968196945</v>
       </c>
       <c r="AB14" t="n">
-        <v>1168.771025684408</v>
+        <v>1449.932351882512</v>
       </c>
       <c r="AC14" t="n">
-        <v>1057.225159373525</v>
+        <v>1311.552843211681</v>
       </c>
       <c r="AD14" t="n">
-        <v>854212.3523571913</v>
+        <v>1059702.968196945</v>
       </c>
       <c r="AE14" t="n">
-        <v>1168771.025684408</v>
+        <v>1449932.351882512</v>
       </c>
       <c r="AF14" t="n">
         <v>3.94452004686647e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>40</v>
+        <v>39.79166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1057225.159373525</v>
+        <v>1311552.843211681</v>
       </c>
     </row>
   </sheetData>
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1624.799257577811</v>
+        <v>1934.475345154786</v>
       </c>
       <c r="AB2" t="n">
-        <v>2223.122025302208</v>
+        <v>2646.834510269797</v>
       </c>
       <c r="AC2" t="n">
-        <v>2010.950379378724</v>
+        <v>2394.224339465214</v>
       </c>
       <c r="AD2" t="n">
-        <v>1624799.257577811</v>
+        <v>1934475.345154786</v>
       </c>
       <c r="AE2" t="n">
-        <v>2223122.025302208</v>
+        <v>2646834.510269797</v>
       </c>
       <c r="AF2" t="n">
         <v>2.712357286344254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.31018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>2010950.379378724</v>
+        <v>2394224.339465213</v>
       </c>
     </row>
     <row r="3">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1109.181467213506</v>
+        <v>1341.447327008396</v>
       </c>
       <c r="AB3" t="n">
-        <v>1517.63101707429</v>
+        <v>1835.427413292207</v>
       </c>
       <c r="AC3" t="n">
-        <v>1372.790442813229</v>
+        <v>1660.256797006151</v>
       </c>
       <c r="AD3" t="n">
-        <v>1109181.467213506</v>
+        <v>1341447.327008396</v>
       </c>
       <c r="AE3" t="n">
-        <v>1517631.01707429</v>
+        <v>1835427.413292207</v>
       </c>
       <c r="AF3" t="n">
         <v>3.567165291083271e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1372790.442813229</v>
+        <v>1660256.797006151</v>
       </c>
     </row>
     <row r="4">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>980.3589970965063</v>
+        <v>1193.26375859118</v>
       </c>
       <c r="AB4" t="n">
-        <v>1341.370430213933</v>
+        <v>1632.67611758612</v>
       </c>
       <c r="AC4" t="n">
-        <v>1213.351918979538</v>
+        <v>1476.855800399023</v>
       </c>
       <c r="AD4" t="n">
-        <v>980358.9970965063</v>
+        <v>1193263.75859118</v>
       </c>
       <c r="AE4" t="n">
-        <v>1341370.430213933</v>
+        <v>1632676.11758612</v>
       </c>
       <c r="AF4" t="n">
         <v>3.889146435031139e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.15509259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>1213351.918979538</v>
+        <v>1476855.800399023</v>
       </c>
     </row>
     <row r="5">
@@ -5739,28 +5739,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>916.4272513157078</v>
+        <v>1129.26368197282</v>
       </c>
       <c r="AB5" t="n">
-        <v>1253.89619516708</v>
+        <v>1545.108389272771</v>
       </c>
       <c r="AC5" t="n">
-        <v>1134.226102154696</v>
+        <v>1397.645413173821</v>
       </c>
       <c r="AD5" t="n">
-        <v>916427.2513157078</v>
+        <v>1129263.68197282</v>
       </c>
       <c r="AE5" t="n">
-        <v>1253896.19516708</v>
+        <v>1545108.389272771</v>
       </c>
       <c r="AF5" t="n">
         <v>4.055923764891694e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.33796296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>1134226.102154696</v>
+        <v>1397645.413173821</v>
       </c>
     </row>
     <row r="6">
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>875.8339488717949</v>
+        <v>1079.02399579758</v>
       </c>
       <c r="AB6" t="n">
-        <v>1198.354647913206</v>
+        <v>1476.36823422928</v>
       </c>
       <c r="AC6" t="n">
-        <v>1083.985362217681</v>
+        <v>1335.465722050268</v>
       </c>
       <c r="AD6" t="n">
-        <v>875833.9488717949</v>
+        <v>1079023.99579758</v>
       </c>
       <c r="AE6" t="n">
-        <v>1198354.647913206</v>
+        <v>1476368.23422928</v>
       </c>
       <c r="AF6" t="n">
         <v>4.164388380663994e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.23842592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>1083985.362217681</v>
+        <v>1335465.722050268</v>
       </c>
     </row>
     <row r="7">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>843.530928759323</v>
+        <v>1046.788295492813</v>
       </c>
       <c r="AB7" t="n">
-        <v>1154.156230686654</v>
+        <v>1432.26192693357</v>
       </c>
       <c r="AC7" t="n">
-        <v>1044.005179898363</v>
+        <v>1295.568858819269</v>
       </c>
       <c r="AD7" t="n">
-        <v>843530.9287593231</v>
+        <v>1046788.295492813</v>
       </c>
       <c r="AE7" t="n">
-        <v>1154156.230686654</v>
+        <v>1432261.92693357</v>
       </c>
       <c r="AF7" t="n">
         <v>4.235313259376935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.54398148148149</v>
       </c>
       <c r="AH7" t="n">
-        <v>1044005.179898363</v>
+        <v>1295568.858819269</v>
       </c>
     </row>
     <row r="8">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>824.7715135482448</v>
+        <v>1018.315176742703</v>
       </c>
       <c r="AB8" t="n">
-        <v>1128.488771187867</v>
+        <v>1393.303749714324</v>
       </c>
       <c r="AC8" t="n">
-        <v>1020.787386709634</v>
+        <v>1260.328795355683</v>
       </c>
       <c r="AD8" t="n">
-        <v>824771.5135482448</v>
+        <v>1018315.176742703</v>
       </c>
       <c r="AE8" t="n">
-        <v>1128488.771187867</v>
+        <v>1393303.749714324</v>
       </c>
       <c r="AF8" t="n">
         <v>4.286800566727124e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.05787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1020787.386709634</v>
+        <v>1260328.795355683</v>
       </c>
     </row>
     <row r="9">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>802.2538517407896</v>
+        <v>1005.477053055499</v>
       </c>
       <c r="AB9" t="n">
-        <v>1097.679112893779</v>
+        <v>1375.738062507447</v>
       </c>
       <c r="AC9" t="n">
-        <v>992.9181589615071</v>
+        <v>1244.439552682233</v>
       </c>
       <c r="AD9" t="n">
-        <v>802253.8517407896</v>
+        <v>1005477.053055499</v>
       </c>
       <c r="AE9" t="n">
-        <v>1097679.112893779</v>
+        <v>1375738.062507447</v>
       </c>
       <c r="AF9" t="n">
         <v>4.312470031198544e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.82638888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>992918.158961507</v>
+        <v>1244439.552682233</v>
       </c>
     </row>
     <row r="10">
@@ -6269,28 +6269,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>802.0319857123602</v>
+        <v>1005.255187027069</v>
       </c>
       <c r="AB10" t="n">
-        <v>1097.375546005644</v>
+        <v>1375.434495619312</v>
       </c>
       <c r="AC10" t="n">
-        <v>992.6435640711167</v>
+        <v>1244.164957791843</v>
       </c>
       <c r="AD10" t="n">
-        <v>802031.9857123602</v>
+        <v>1005255.187027069</v>
       </c>
       <c r="AE10" t="n">
-        <v>1097375.546005644</v>
+        <v>1375434.495619312</v>
       </c>
       <c r="AF10" t="n">
         <v>4.320482465195403e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.74537037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>992643.5640711166</v>
+        <v>1244164.957791843</v>
       </c>
     </row>
     <row r="11">
@@ -6375,28 +6375,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>804.131100666618</v>
+        <v>1007.354301981327</v>
       </c>
       <c r="AB11" t="n">
-        <v>1100.247647692475</v>
+        <v>1378.306597306143</v>
       </c>
       <c r="AC11" t="n">
-        <v>995.2415564039769</v>
+        <v>1246.762950124703</v>
       </c>
       <c r="AD11" t="n">
-        <v>804131.100666618</v>
+        <v>1007354.301981327</v>
       </c>
       <c r="AE11" t="n">
-        <v>1100247.647692475</v>
+        <v>1378306.597306143</v>
       </c>
       <c r="AF11" t="n">
         <v>4.31914705952926e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>39.75694444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>995241.5564039769</v>
+        <v>1246762.950124703</v>
       </c>
     </row>
   </sheetData>
@@ -6672,28 +6672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>875.5983457721989</v>
+        <v>1100.02842229915</v>
       </c>
       <c r="AB2" t="n">
-        <v>1198.032285358264</v>
+        <v>1505.107417218626</v>
       </c>
       <c r="AC2" t="n">
-        <v>1083.693765492543</v>
+        <v>1361.462077750807</v>
       </c>
       <c r="AD2" t="n">
-        <v>875598.3457721989</v>
+        <v>1100028.42229915</v>
       </c>
       <c r="AE2" t="n">
-        <v>1198032.285358264</v>
+        <v>1505107.417218626</v>
       </c>
       <c r="AF2" t="n">
         <v>5.058724458721511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.38425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1083693.765492543</v>
+        <v>1361462.077750807</v>
       </c>
     </row>
     <row r="3">
@@ -6778,28 +6778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>707.5213293077203</v>
+        <v>903.884960615492</v>
       </c>
       <c r="AB3" t="n">
-        <v>968.0618963969248</v>
+        <v>1236.735279704231</v>
       </c>
       <c r="AC3" t="n">
-        <v>875.6714276882066</v>
+        <v>1118.703000378125</v>
       </c>
       <c r="AD3" t="n">
-        <v>707521.3293077203</v>
+        <v>903884.960615492</v>
       </c>
       <c r="AE3" t="n">
-        <v>968061.8963969247</v>
+        <v>1236735.279704231</v>
       </c>
       <c r="AF3" t="n">
         <v>5.799328678175703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.33101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>875671.4276882065</v>
+        <v>1118703.000378125</v>
       </c>
     </row>
     <row r="4">
@@ -6884,28 +6884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>683.4001850797272</v>
+        <v>879.8311361952034</v>
       </c>
       <c r="AB4" t="n">
-        <v>935.0582827144052</v>
+        <v>1203.823775952553</v>
       </c>
       <c r="AC4" t="n">
-        <v>845.8176325746839</v>
+        <v>1088.932524352922</v>
       </c>
       <c r="AD4" t="n">
-        <v>683400.1850797272</v>
+        <v>879831.1361952034</v>
       </c>
       <c r="AE4" t="n">
-        <v>935058.2827144052</v>
+        <v>1203823.775952553</v>
       </c>
       <c r="AF4" t="n">
         <v>5.897703120077477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.64814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>845817.6325746839</v>
+        <v>1088932.524352921</v>
       </c>
     </row>
   </sheetData>
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1100.838852795313</v>
+        <v>1356.732595618977</v>
       </c>
       <c r="AB2" t="n">
-        <v>1506.216283977147</v>
+        <v>1856.341392143662</v>
       </c>
       <c r="AC2" t="n">
-        <v>1362.465115822199</v>
+        <v>1679.174775068978</v>
       </c>
       <c r="AD2" t="n">
-        <v>1100838.852795313</v>
+        <v>1356732.595618977</v>
       </c>
       <c r="AE2" t="n">
-        <v>1506216.283977147</v>
+        <v>1856341.392143663</v>
       </c>
       <c r="AF2" t="n">
         <v>3.970673493885478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.2800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1362465.115822199</v>
+        <v>1679174.775068978</v>
       </c>
     </row>
     <row r="3">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>843.5300383075978</v>
+        <v>1061.560820425051</v>
       </c>
       <c r="AB3" t="n">
-        <v>1154.15501233132</v>
+        <v>1452.474347263662</v>
       </c>
       <c r="AC3" t="n">
-        <v>1044.004077821151</v>
+        <v>1313.852234121367</v>
       </c>
       <c r="AD3" t="n">
-        <v>843530.0383075979</v>
+        <v>1061560.820425051</v>
       </c>
       <c r="AE3" t="n">
-        <v>1154155.01233132</v>
+        <v>1452474.347263662</v>
       </c>
       <c r="AF3" t="n">
         <v>4.764306007117478e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.57638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1044004.077821151</v>
+        <v>1313852.234121367</v>
       </c>
     </row>
     <row r="4">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>767.0394882195368</v>
+        <v>966.071975691108</v>
       </c>
       <c r="AB4" t="n">
-        <v>1049.497267175927</v>
+        <v>1321.822297228167</v>
       </c>
       <c r="AC4" t="n">
-        <v>949.3347209753211</v>
+        <v>1195.669432369956</v>
       </c>
       <c r="AD4" t="n">
-        <v>767039.4882195368</v>
+        <v>966071.975691108</v>
       </c>
       <c r="AE4" t="n">
-        <v>1049497.267175927</v>
+        <v>1321822.297228167</v>
       </c>
       <c r="AF4" t="n">
         <v>5.056470383175088e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.05324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>949334.7209753211</v>
+        <v>1195669.432369956</v>
       </c>
     </row>
     <row r="5">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>729.6927517775458</v>
+        <v>919.276834539419</v>
       </c>
       <c r="AB5" t="n">
-        <v>998.3978147542658</v>
+        <v>1257.795120648501</v>
       </c>
       <c r="AC5" t="n">
-        <v>903.1121285742519</v>
+        <v>1137.752919660346</v>
       </c>
       <c r="AD5" t="n">
-        <v>729692.7517775458</v>
+        <v>919276.834539419</v>
       </c>
       <c r="AE5" t="n">
-        <v>998397.8147542658</v>
+        <v>1257795.120648501</v>
       </c>
       <c r="AF5" t="n">
         <v>5.176277506076552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.10416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>903112.1285742519</v>
+        <v>1137752.919660346</v>
       </c>
     </row>
     <row r="6">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>729.4318202516798</v>
+        <v>919.0159030135533</v>
       </c>
       <c r="AB6" t="n">
-        <v>998.0407967290898</v>
+        <v>1257.438102623325</v>
       </c>
       <c r="AC6" t="n">
-        <v>902.7891838483206</v>
+        <v>1137.429974934415</v>
       </c>
       <c r="AD6" t="n">
-        <v>729431.8202516799</v>
+        <v>919015.9030135532</v>
       </c>
       <c r="AE6" t="n">
-        <v>998040.7967290898</v>
+        <v>1257438.102623325</v>
       </c>
       <c r="AF6" t="n">
         <v>5.18129936152751e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.06944444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>902789.1838483206</v>
+        <v>1137429.974934415</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>731.2921490480497</v>
+        <v>943.9350917998588</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000.586180660197</v>
+        <v>1291.533636077768</v>
       </c>
       <c r="AC2" t="n">
-        <v>905.0916399095119</v>
+        <v>1168.271478529349</v>
       </c>
       <c r="AD2" t="n">
-        <v>731292.1490480497</v>
+        <v>943935.0917998588</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000586.180660197</v>
+        <v>1291533.636077768</v>
       </c>
       <c r="AF2" t="n">
         <v>6.206586122241165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.23611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>905091.6399095119</v>
+        <v>1168271.478529349</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>657.3903642990672</v>
+        <v>851.5649860873027</v>
       </c>
       <c r="AB3" t="n">
-        <v>899.470498449998</v>
+        <v>1165.14878236039</v>
       </c>
       <c r="AC3" t="n">
-        <v>813.6262964927027</v>
+        <v>1053.9486178685</v>
       </c>
       <c r="AD3" t="n">
-        <v>657390.3642990672</v>
+        <v>851564.9860873027</v>
       </c>
       <c r="AE3" t="n">
-        <v>899470.498449998</v>
+        <v>1165148.78236039</v>
       </c>
       <c r="AF3" t="n">
         <v>6.616009689869227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.49305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>813626.2964927028</v>
+        <v>1053948.6178685</v>
       </c>
     </row>
   </sheetData>
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1729.864456048849</v>
+        <v>2059.798215744912</v>
       </c>
       <c r="AB2" t="n">
-        <v>2366.876864999706</v>
+        <v>2818.306790666051</v>
       </c>
       <c r="AC2" t="n">
-        <v>2140.985458936677</v>
+        <v>2549.331546083306</v>
       </c>
       <c r="AD2" t="n">
-        <v>1729864.456048849</v>
+        <v>2059798.215744912</v>
       </c>
       <c r="AE2" t="n">
-        <v>2366876.864999706</v>
+        <v>2818306.790666051</v>
       </c>
       <c r="AF2" t="n">
         <v>2.558654112308549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.49768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>2140985.458936677</v>
+        <v>2549331.546083306</v>
       </c>
     </row>
     <row r="3">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1158.250494216476</v>
+        <v>1400.87222646066</v>
       </c>
       <c r="AB3" t="n">
-        <v>1584.769424592443</v>
+        <v>1916.735182364331</v>
       </c>
       <c r="AC3" t="n">
-        <v>1433.521254947196</v>
+        <v>1733.804666714203</v>
       </c>
       <c r="AD3" t="n">
-        <v>1158250.494216476</v>
+        <v>1400872.22646066</v>
       </c>
       <c r="AE3" t="n">
-        <v>1584769.424592443</v>
+        <v>1916735.182364331</v>
       </c>
       <c r="AF3" t="n">
         <v>3.419164631772627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.0162037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1433521.254947196</v>
+        <v>1733804.666714203</v>
       </c>
     </row>
     <row r="4">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1010.026998346725</v>
+        <v>1233.29819300096</v>
       </c>
       <c r="AB4" t="n">
-        <v>1381.963498384323</v>
+        <v>1687.452996940175</v>
       </c>
       <c r="AC4" t="n">
-        <v>1250.070841696474</v>
+        <v>1526.40485126736</v>
       </c>
       <c r="AD4" t="n">
-        <v>1010026.998346725</v>
+        <v>1233298.19300096</v>
       </c>
       <c r="AE4" t="n">
-        <v>1381963.498384323</v>
+        <v>1687452.996940175</v>
       </c>
       <c r="AF4" t="n">
         <v>3.750308424135801e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1250070.841696474</v>
+        <v>1526404.85126736</v>
       </c>
     </row>
     <row r="5">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>942.7249146777366</v>
+        <v>1156.287180633145</v>
       </c>
       <c r="AB5" t="n">
-        <v>1289.877818350034</v>
+        <v>1582.083132332447</v>
       </c>
       <c r="AC5" t="n">
-        <v>1166.773689721595</v>
+        <v>1431.09133865026</v>
       </c>
       <c r="AD5" t="n">
-        <v>942724.9146777366</v>
+        <v>1156287.180633145</v>
       </c>
       <c r="AE5" t="n">
-        <v>1289877.818350034</v>
+        <v>1582083.132332447</v>
       </c>
       <c r="AF5" t="n">
         <v>3.922758033538748e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.7199074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>1166773.689721595</v>
+        <v>1431091.33865026</v>
       </c>
     </row>
     <row r="6">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>901.5620888531187</v>
+        <v>1105.449591528481</v>
       </c>
       <c r="AB6" t="n">
-        <v>1233.557024081082</v>
+        <v>1512.524900123303</v>
       </c>
       <c r="AC6" t="n">
-        <v>1115.828073010939</v>
+        <v>1368.171646497564</v>
       </c>
       <c r="AD6" t="n">
-        <v>901562.0888531187</v>
+        <v>1105449.591528481</v>
       </c>
       <c r="AE6" t="n">
-        <v>1233557.024081082</v>
+        <v>1512524.900123303</v>
       </c>
       <c r="AF6" t="n">
         <v>4.033525414893286e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.55092592592592</v>
       </c>
       <c r="AH6" t="n">
-        <v>1115828.073010939</v>
+        <v>1368171.646497564</v>
       </c>
     </row>
     <row r="7">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>869.2724916157301</v>
+        <v>1073.125828872311</v>
       </c>
       <c r="AB7" t="n">
-        <v>1189.376972624394</v>
+        <v>1468.298102033368</v>
       </c>
       <c r="AC7" t="n">
-        <v>1075.864503658186</v>
+        <v>1328.165791944631</v>
       </c>
       <c r="AD7" t="n">
-        <v>869272.4916157301</v>
+        <v>1073125.828872311</v>
       </c>
       <c r="AE7" t="n">
-        <v>1189376.972624394</v>
+        <v>1468298.102033368</v>
       </c>
       <c r="AF7" t="n">
         <v>4.106356778058427e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.81018518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>1075864.503658186</v>
+        <v>1328165.791944631</v>
       </c>
     </row>
     <row r="8">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>845.8619714235678</v>
+        <v>1039.973225592399</v>
       </c>
       <c r="AB8" t="n">
-        <v>1157.345666098218</v>
+        <v>1422.937247636158</v>
       </c>
       <c r="AC8" t="n">
-        <v>1046.890220070648</v>
+        <v>1287.134113826733</v>
       </c>
       <c r="AD8" t="n">
-        <v>845861.9714235677</v>
+        <v>1039973.225592399</v>
       </c>
       <c r="AE8" t="n">
-        <v>1157345.666098218</v>
+        <v>1422937.247636158</v>
       </c>
       <c r="AF8" t="n">
         <v>4.164853538930627e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.24305555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1046890.220070648</v>
+        <v>1287134.113826733</v>
       </c>
     </row>
     <row r="9">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>821.5287711210709</v>
+        <v>1025.347942958871</v>
       </c>
       <c r="AB9" t="n">
-        <v>1124.051907939309</v>
+        <v>1402.926290715034</v>
       </c>
       <c r="AC9" t="n">
-        <v>1016.773971462341</v>
+        <v>1269.032974548607</v>
       </c>
       <c r="AD9" t="n">
-        <v>821528.771121071</v>
+        <v>1025347.942958872</v>
       </c>
       <c r="AE9" t="n">
-        <v>1124051.907939309</v>
+        <v>1402926.290715034</v>
       </c>
       <c r="AF9" t="n">
         <v>4.197142592580381e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.93055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1016773.971462341</v>
+        <v>1269032.974548607</v>
       </c>
     </row>
     <row r="10">
@@ -9153,28 +9153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>812.734209798346</v>
+        <v>1016.553381636146</v>
       </c>
       <c r="AB10" t="n">
-        <v>1112.018801148894</v>
+        <v>1390.893183924619</v>
       </c>
       <c r="AC10" t="n">
-        <v>1005.889287495432</v>
+        <v>1258.148290581697</v>
       </c>
       <c r="AD10" t="n">
-        <v>812734.209798346</v>
+        <v>1016553.381636146</v>
       </c>
       <c r="AE10" t="n">
-        <v>1112018.801148894</v>
+        <v>1390893.183924619</v>
       </c>
       <c r="AF10" t="n">
         <v>4.213069928461426e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.78009259259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>1005889.287495432</v>
+        <v>1258148.290581697</v>
       </c>
     </row>
     <row r="11">
@@ -9259,28 +9259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>813.1788002949953</v>
+        <v>1016.997972132796</v>
       </c>
       <c r="AB11" t="n">
-        <v>1112.627109480358</v>
+        <v>1391.501492256083</v>
       </c>
       <c r="AC11" t="n">
-        <v>1006.439539733507</v>
+        <v>1258.698542819772</v>
       </c>
       <c r="AD11" t="n">
-        <v>813178.8002949953</v>
+        <v>1016997.972132796</v>
       </c>
       <c r="AE11" t="n">
-        <v>1112627.109480357</v>
+        <v>1391501.492256083</v>
       </c>
       <c r="AF11" t="n">
         <v>4.218572099038514e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>39.72222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1006439.539733507</v>
+        <v>1258698.542819772</v>
       </c>
     </row>
   </sheetData>
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.1238402388948</v>
+        <v>857.259078808941</v>
       </c>
       <c r="AB2" t="n">
-        <v>896.3693402388855</v>
+        <v>1172.939691227777</v>
       </c>
       <c r="AC2" t="n">
-        <v>810.8211084687558</v>
+        <v>1060.995973328193</v>
       </c>
       <c r="AD2" t="n">
-        <v>655123.8402388948</v>
+        <v>857259.0788089411</v>
       </c>
       <c r="AE2" t="n">
-        <v>896369.3402388855</v>
+        <v>1172939.691227777</v>
       </c>
       <c r="AF2" t="n">
         <v>7.00449863733646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.89351851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>810821.1084687558</v>
+        <v>1060995.973328193</v>
       </c>
     </row>
     <row r="3">
@@ -9662,28 +9662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>647.9014854984106</v>
+        <v>849.9352388419713</v>
       </c>
       <c r="AB3" t="n">
-        <v>886.4873958551514</v>
+        <v>1162.918890279954</v>
       </c>
       <c r="AC3" t="n">
-        <v>801.8822829876094</v>
+        <v>1051.931543558548</v>
       </c>
       <c r="AD3" t="n">
-        <v>647901.4854984105</v>
+        <v>849935.2388419714</v>
       </c>
       <c r="AE3" t="n">
-        <v>886487.3958551513</v>
+        <v>1162918.890279954</v>
       </c>
       <c r="AF3" t="n">
         <v>7.102089754824083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.30324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>801882.2829876094</v>
+        <v>1051931.543558548</v>
       </c>
     </row>
   </sheetData>
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1342.200221460805</v>
+        <v>1629.683718904549</v>
       </c>
       <c r="AB2" t="n">
-        <v>1836.457556697351</v>
+        <v>2229.805160776677</v>
       </c>
       <c r="AC2" t="n">
-        <v>1661.188624970524</v>
+        <v>2016.995685783349</v>
       </c>
       <c r="AD2" t="n">
-        <v>1342200.221460805</v>
+        <v>1629683.718904549</v>
       </c>
       <c r="AE2" t="n">
-        <v>1836457.556697351</v>
+        <v>2229805.160776677</v>
       </c>
       <c r="AF2" t="n">
         <v>3.248926176438621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.47685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1661188.624970524</v>
+        <v>2016995.685783349</v>
       </c>
     </row>
     <row r="3">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>969.8731120063125</v>
+        <v>1199.927431974984</v>
       </c>
       <c r="AB3" t="n">
-        <v>1327.023179628929</v>
+        <v>1641.793649490362</v>
       </c>
       <c r="AC3" t="n">
-        <v>1200.373949853873</v>
+        <v>1485.10316785486</v>
       </c>
       <c r="AD3" t="n">
-        <v>969873.1120063125</v>
+        <v>1199927.431974984</v>
       </c>
       <c r="AE3" t="n">
-        <v>1327023.179628929</v>
+        <v>1641793.649490362</v>
       </c>
       <c r="AF3" t="n">
         <v>4.081285025534655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.75231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>1200373.949853873</v>
+        <v>1485103.16785486</v>
       </c>
     </row>
     <row r="4">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>872.5926548581235</v>
+        <v>1083.50425267839</v>
       </c>
       <c r="AB4" t="n">
-        <v>1193.919766447901</v>
+        <v>1482.498319348588</v>
       </c>
       <c r="AC4" t="n">
-        <v>1079.973739615029</v>
+        <v>1341.010760449417</v>
       </c>
       <c r="AD4" t="n">
-        <v>872592.6548581235</v>
+        <v>1083504.25267839</v>
       </c>
       <c r="AE4" t="n">
-        <v>1193919.766447901</v>
+        <v>1482498.319348588</v>
       </c>
       <c r="AF4" t="n">
         <v>4.378959395874291e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.65046296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>1079973.739615029</v>
+        <v>1341010.760449417</v>
       </c>
     </row>
     <row r="5">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>821.7785141772388</v>
+        <v>1023.034348406208</v>
       </c>
       <c r="AB5" t="n">
-        <v>1124.393617406643</v>
+        <v>1399.760728579492</v>
       </c>
       <c r="AC5" t="n">
-        <v>1017.083068657706</v>
+        <v>1266.169529220386</v>
       </c>
       <c r="AD5" t="n">
-        <v>821778.5141772388</v>
+        <v>1023034.348406208</v>
       </c>
       <c r="AE5" t="n">
-        <v>1124393.617406643</v>
+        <v>1399760.728579492</v>
       </c>
       <c r="AF5" t="n">
         <v>4.549819644215578e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.04166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1017083.068657706</v>
+        <v>1266169.529220386</v>
       </c>
     </row>
     <row r="6">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>784.9514501689556</v>
+        <v>976.6530060331122</v>
       </c>
       <c r="AB6" t="n">
-        <v>1074.005203735111</v>
+        <v>1336.299729744211</v>
       </c>
       <c r="AC6" t="n">
-        <v>971.5036544664025</v>
+        <v>1208.765159045872</v>
       </c>
       <c r="AD6" t="n">
-        <v>784951.4501689556</v>
+        <v>976653.0060331122</v>
       </c>
       <c r="AE6" t="n">
-        <v>1074005.203735111</v>
+        <v>1336299.729744211</v>
       </c>
       <c r="AF6" t="n">
         <v>4.640170672611348e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.24305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>971503.6544664025</v>
+        <v>1208765.159045872</v>
       </c>
     </row>
     <row r="7">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>759.1394644019553</v>
+        <v>960.4284530198479</v>
       </c>
       <c r="AB7" t="n">
-        <v>1038.688106064258</v>
+        <v>1314.1005805347</v>
       </c>
       <c r="AC7" t="n">
-        <v>939.5571710293976</v>
+        <v>1188.684665480216</v>
       </c>
       <c r="AD7" t="n">
-        <v>759139.4644019553</v>
+        <v>960428.4530198479</v>
       </c>
       <c r="AE7" t="n">
-        <v>1038688.106064258</v>
+        <v>1314100.5805347</v>
       </c>
       <c r="AF7" t="n">
         <v>4.682280705488663e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.88425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>939557.1710293976</v>
+        <v>1188684.665480216</v>
       </c>
     </row>
     <row r="8">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>759.8330732291452</v>
+        <v>961.1220618470378</v>
       </c>
       <c r="AB8" t="n">
-        <v>1039.637132261481</v>
+        <v>1315.049606731923</v>
       </c>
       <c r="AC8" t="n">
-        <v>940.4156234983243</v>
+        <v>1189.543117949143</v>
       </c>
       <c r="AD8" t="n">
-        <v>759833.0732291451</v>
+        <v>961122.0618470378</v>
       </c>
       <c r="AE8" t="n">
-        <v>1039637.132261481</v>
+        <v>1315049.606731923</v>
       </c>
       <c r="AF8" t="n">
         <v>4.689863738229023e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.81481481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>940415.6234983243</v>
+        <v>1189543.117949143</v>
       </c>
     </row>
   </sheetData>
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1530.129030920168</v>
+        <v>1838.794108725879</v>
       </c>
       <c r="AB2" t="n">
-        <v>2093.590044633587</v>
+        <v>2515.91922142953</v>
       </c>
       <c r="AC2" t="n">
-        <v>1893.780749145839</v>
+        <v>2275.8034220511</v>
       </c>
       <c r="AD2" t="n">
-        <v>1530129.030920168</v>
+        <v>1838794.108725879</v>
       </c>
       <c r="AE2" t="n">
-        <v>2093590.044633587</v>
+        <v>2515919.22142953</v>
       </c>
       <c r="AF2" t="n">
         <v>2.869939472184954e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.41203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1893780.749145839</v>
+        <v>2275803.4220511</v>
       </c>
     </row>
     <row r="3">
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1062.277817604059</v>
+        <v>1293.802502779893</v>
       </c>
       <c r="AB3" t="n">
-        <v>1453.455374435665</v>
+        <v>1770.237662841471</v>
       </c>
       <c r="AC3" t="n">
-        <v>1314.739633436954</v>
+        <v>1601.288664844045</v>
       </c>
       <c r="AD3" t="n">
-        <v>1062277.817604059</v>
+        <v>1293802.502779893</v>
       </c>
       <c r="AE3" t="n">
-        <v>1453455.374435665</v>
+        <v>1770237.662841471</v>
       </c>
       <c r="AF3" t="n">
         <v>3.724753494863339e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.32638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1314739.633436954</v>
+        <v>1601288.664844045</v>
       </c>
     </row>
     <row r="4">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>941.2051670039006</v>
+        <v>1163.111916135228</v>
       </c>
       <c r="AB4" t="n">
-        <v>1287.798432536156</v>
+        <v>1591.421036532478</v>
       </c>
       <c r="AC4" t="n">
-        <v>1164.892757571357</v>
+        <v>1439.53804637927</v>
       </c>
       <c r="AD4" t="n">
-        <v>941205.1670039005</v>
+        <v>1163111.916135228</v>
       </c>
       <c r="AE4" t="n">
-        <v>1287798.432536156</v>
+        <v>1591421.036532477</v>
       </c>
       <c r="AF4" t="n">
         <v>4.03710403120992e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.65740740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1164892.757571357</v>
+        <v>1439538.04637927</v>
       </c>
     </row>
     <row r="5">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>879.8130159793801</v>
+        <v>1092.068674677277</v>
       </c>
       <c r="AB5" t="n">
-        <v>1203.798983073855</v>
+        <v>1494.216539363098</v>
       </c>
       <c r="AC5" t="n">
-        <v>1088.91009767177</v>
+        <v>1351.610609992368</v>
       </c>
       <c r="AD5" t="n">
-        <v>879813.0159793801</v>
+        <v>1092068.674677277</v>
       </c>
       <c r="AE5" t="n">
-        <v>1203798.983073856</v>
+        <v>1494216.539363098</v>
       </c>
       <c r="AF5" t="n">
         <v>4.202949830372001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.93287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1088910.09767177</v>
+        <v>1351610.609992368</v>
       </c>
     </row>
     <row r="6">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>840.915903147815</v>
+        <v>1043.554636831063</v>
       </c>
       <c r="AB6" t="n">
-        <v>1150.578237278201</v>
+        <v>1427.837492493612</v>
       </c>
       <c r="AC6" t="n">
-        <v>1040.768665159067</v>
+        <v>1291.566686192528</v>
       </c>
       <c r="AD6" t="n">
-        <v>840915.903147815</v>
+        <v>1043554.636831063</v>
       </c>
       <c r="AE6" t="n">
-        <v>1150578.237278201</v>
+        <v>1427837.492493612</v>
       </c>
       <c r="AF6" t="n">
         <v>4.308488066202416e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.91435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1040768.665159067</v>
+        <v>1291566.686192528</v>
       </c>
     </row>
     <row r="7">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>817.2981711957219</v>
+        <v>1010.252660056616</v>
       </c>
       <c r="AB7" t="n">
-        <v>1118.26341448055</v>
+        <v>1382.272258691288</v>
       </c>
       <c r="AC7" t="n">
-        <v>1011.537923695085</v>
+        <v>1250.350134353091</v>
       </c>
       <c r="AD7" t="n">
-        <v>817298.171195722</v>
+        <v>1010252.660056616</v>
       </c>
       <c r="AE7" t="n">
-        <v>1118263.41448055</v>
+        <v>1382272.258691288</v>
       </c>
       <c r="AF7" t="n">
         <v>4.381740434794668e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.23148148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>1011537.923695085</v>
+        <v>1250350.134353091</v>
       </c>
     </row>
     <row r="8">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>788.3036055101561</v>
+        <v>990.9081737746234</v>
       </c>
       <c r="AB8" t="n">
-        <v>1078.591770559599</v>
+        <v>1355.804279141762</v>
       </c>
       <c r="AC8" t="n">
-        <v>975.6524857904476</v>
+        <v>1226.408221623728</v>
       </c>
       <c r="AD8" t="n">
-        <v>788303.6055101561</v>
+        <v>990908.1737746234</v>
       </c>
       <c r="AE8" t="n">
-        <v>1078591.770559599</v>
+        <v>1355804.279141762</v>
       </c>
       <c r="AF8" t="n">
         <v>4.427275690946606e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.81481481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>975652.4857904476</v>
+        <v>1226408.221623729</v>
       </c>
     </row>
     <row r="9">
@@ -11634,28 +11634,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>786.1952523586501</v>
+        <v>988.7998206231175</v>
       </c>
       <c r="AB9" t="n">
-        <v>1075.707028763731</v>
+        <v>1352.919537345895</v>
       </c>
       <c r="AC9" t="n">
-        <v>973.0430597028176</v>
+        <v>1223.798795536099</v>
       </c>
       <c r="AD9" t="n">
-        <v>786195.2523586501</v>
+        <v>988799.8206231175</v>
       </c>
       <c r="AE9" t="n">
-        <v>1075707.028763731</v>
+        <v>1352919.537345895</v>
       </c>
       <c r="AF9" t="n">
         <v>4.432605904877436e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.76851851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>973043.0597028176</v>
+        <v>1223798.795536099</v>
       </c>
     </row>
     <row r="10">
@@ -11740,28 +11740,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>788.3433518281101</v>
+        <v>990.9479200925774</v>
       </c>
       <c r="AB10" t="n">
-        <v>1078.646153225307</v>
+        <v>1355.85866180747</v>
       </c>
       <c r="AC10" t="n">
-        <v>975.7016782508672</v>
+        <v>1226.457414084148</v>
       </c>
       <c r="AD10" t="n">
-        <v>788343.3518281102</v>
+        <v>990947.9200925775</v>
       </c>
       <c r="AE10" t="n">
-        <v>1078646.153225307</v>
+        <v>1355858.66180747</v>
       </c>
       <c r="AF10" t="n">
         <v>4.432301321224246e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.76851851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>975701.6782508672</v>
+        <v>1226457.414084148</v>
       </c>
     </row>
   </sheetData>
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1965.229534180966</v>
+        <v>2316.555942699466</v>
       </c>
       <c r="AB2" t="n">
-        <v>2688.913748474481</v>
+        <v>3169.614040036922</v>
       </c>
       <c r="AC2" t="n">
-        <v>2432.287594234224</v>
+        <v>2867.110524636923</v>
       </c>
       <c r="AD2" t="n">
-        <v>1965229.534180966</v>
+        <v>2316555.942699466</v>
       </c>
       <c r="AE2" t="n">
-        <v>2688913.748474481</v>
+        <v>3169614.040036922</v>
       </c>
       <c r="AF2" t="n">
         <v>2.2864976810205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.08101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>2432287.594234224</v>
+        <v>2867110.524636923</v>
       </c>
     </row>
     <row r="3">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1246.524288870567</v>
+        <v>1500.323832847838</v>
       </c>
       <c r="AB3" t="n">
-        <v>1705.549524803141</v>
+        <v>2052.809257718488</v>
       </c>
       <c r="AC3" t="n">
-        <v>1542.774271909721</v>
+        <v>1856.892023297724</v>
       </c>
       <c r="AD3" t="n">
-        <v>1246524.288870567</v>
+        <v>1500323.832847838</v>
       </c>
       <c r="AE3" t="n">
-        <v>1705549.524803141</v>
+        <v>2052809.257718489</v>
       </c>
       <c r="AF3" t="n">
         <v>3.160339613849356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.70601851851853</v>
       </c>
       <c r="AH3" t="n">
-        <v>1542774.271909721</v>
+        <v>1856892.023297724</v>
       </c>
     </row>
     <row r="4">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1082.323739052761</v>
+        <v>1316.563447657708</v>
       </c>
       <c r="AB4" t="n">
-        <v>1480.883088525417</v>
+        <v>1801.380191765317</v>
       </c>
       <c r="AC4" t="n">
-        <v>1339.549684989019</v>
+        <v>1629.458994516213</v>
       </c>
       <c r="AD4" t="n">
-        <v>1082323.739052761</v>
+        <v>1316563.447657708</v>
       </c>
       <c r="AE4" t="n">
-        <v>1480883.088525417</v>
+        <v>1801380.191765317</v>
       </c>
       <c r="AF4" t="n">
         <v>3.493983317606889e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.85648148148147</v>
       </c>
       <c r="AH4" t="n">
-        <v>1339549.684989019</v>
+        <v>1629458.994516213</v>
       </c>
     </row>
     <row r="5">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1007.127289476543</v>
+        <v>1231.604163104719</v>
       </c>
       <c r="AB5" t="n">
-        <v>1377.995988782013</v>
+        <v>1685.135150500813</v>
       </c>
       <c r="AC5" t="n">
-        <v>1246.481985642174</v>
+        <v>1524.308216839053</v>
       </c>
       <c r="AD5" t="n">
-        <v>1007127.289476543</v>
+        <v>1231604.163104719</v>
       </c>
       <c r="AE5" t="n">
-        <v>1377995.988782013</v>
+        <v>1685135.150500813</v>
       </c>
       <c r="AF5" t="n">
         <v>3.676172161650421e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.58796296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>1246481.985642174</v>
+        <v>1524308.216839053</v>
       </c>
     </row>
     <row r="6">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>962.1926126435776</v>
+        <v>1176.839331487278</v>
       </c>
       <c r="AB6" t="n">
-        <v>1316.514381561117</v>
+        <v>1610.203491827976</v>
       </c>
       <c r="AC6" t="n">
-        <v>1190.868096724463</v>
+        <v>1456.527930502708</v>
       </c>
       <c r="AD6" t="n">
-        <v>962192.6126435776</v>
+        <v>1176839.331487278</v>
       </c>
       <c r="AE6" t="n">
-        <v>1316514.381561117</v>
+        <v>1610203.491827976</v>
       </c>
       <c r="AF6" t="n">
         <v>3.793293561392692e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.24537037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1190868.096724463</v>
+        <v>1456527.930502708</v>
       </c>
     </row>
     <row r="7">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>927.5391968877287</v>
+        <v>1132.457246173439</v>
       </c>
       <c r="AB7" t="n">
-        <v>1269.100049323159</v>
+        <v>1549.477964702166</v>
       </c>
       <c r="AC7" t="n">
-        <v>1147.978921808863</v>
+        <v>1401.597962456973</v>
       </c>
       <c r="AD7" t="n">
-        <v>927539.1968877288</v>
+        <v>1132457.246173439</v>
       </c>
       <c r="AE7" t="n">
-        <v>1269100.049323159</v>
+        <v>1549477.964702166</v>
       </c>
       <c r="AF7" t="n">
         <v>3.866944370686886e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.43518518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>1147978.921808863</v>
+        <v>1401597.962456973</v>
       </c>
     </row>
     <row r="8">
@@ -12673,28 +12673,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>896.0568036790504</v>
+        <v>1101.042172772465</v>
       </c>
       <c r="AB8" t="n">
-        <v>1226.024450029881</v>
+        <v>1506.494475339729</v>
       </c>
       <c r="AC8" t="n">
-        <v>1109.014397255152</v>
+        <v>1362.71675699158</v>
       </c>
       <c r="AD8" t="n">
-        <v>896056.8036790504</v>
+        <v>1101042.172772465</v>
       </c>
       <c r="AE8" t="n">
-        <v>1226024.450029881</v>
+        <v>1506494.475339729</v>
       </c>
       <c r="AF8" t="n">
         <v>3.928966104829365e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.78703703703705</v>
       </c>
       <c r="AH8" t="n">
-        <v>1109014.397255152</v>
+        <v>1362716.756991581</v>
       </c>
     </row>
     <row r="9">
@@ -12779,28 +12779,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>881.670122014148</v>
+        <v>1086.554005881077</v>
       </c>
       <c r="AB9" t="n">
-        <v>1206.339957480361</v>
+        <v>1486.67112622612</v>
       </c>
       <c r="AC9" t="n">
-        <v>1091.208565047199</v>
+        <v>1344.785320495129</v>
       </c>
       <c r="AD9" t="n">
-        <v>881670.1220141479</v>
+        <v>1086554.005881077</v>
       </c>
       <c r="AE9" t="n">
-        <v>1206339.957480361</v>
+        <v>1486671.12622612</v>
       </c>
       <c r="AF9" t="n">
         <v>3.964545537138778e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.41666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1091208.565047199</v>
+        <v>1344785.320495129</v>
       </c>
     </row>
     <row r="10">
@@ -12885,28 +12885,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>865.5457682618692</v>
+        <v>1060.735147989589</v>
       </c>
       <c r="AB10" t="n">
-        <v>1184.277905320211</v>
+        <v>1451.344625811366</v>
       </c>
       <c r="AC10" t="n">
-        <v>1071.252084180929</v>
+        <v>1312.830331698904</v>
       </c>
       <c r="AD10" t="n">
-        <v>865545.7682618692</v>
+        <v>1060735.147989589</v>
       </c>
       <c r="AE10" t="n">
-        <v>1184277.905320211</v>
+        <v>1451344.625811366</v>
       </c>
       <c r="AF10" t="n">
         <v>4.000124969448191e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.05787037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>1071252.084180929</v>
+        <v>1312830.331698904</v>
       </c>
     </row>
     <row r="11">
@@ -12991,28 +12991,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>843.0465177136143</v>
+        <v>1047.997721388248</v>
       </c>
       <c r="AB11" t="n">
-        <v>1153.493438123208</v>
+        <v>1433.916716799809</v>
       </c>
       <c r="AC11" t="n">
-        <v>1043.405643326937</v>
+        <v>1297.065717863186</v>
       </c>
       <c r="AD11" t="n">
-        <v>843046.5177136143</v>
+        <v>1047997.721388248</v>
       </c>
       <c r="AE11" t="n">
-        <v>1153493.438123208</v>
+        <v>1433916.716799809</v>
       </c>
       <c r="AF11" t="n">
         <v>4.022552471526498e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>39.83796296296297</v>
       </c>
       <c r="AH11" t="n">
-        <v>1043405.643326937</v>
+        <v>1297065.717863186</v>
       </c>
     </row>
     <row r="12">
@@ -13097,28 +13097,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>840.4720312106383</v>
+        <v>1045.423234885272</v>
       </c>
       <c r="AB12" t="n">
-        <v>1149.970912111508</v>
+        <v>1430.394190788108</v>
       </c>
       <c r="AC12" t="n">
-        <v>1040.219302253897</v>
+        <v>1293.879376790146</v>
       </c>
       <c r="AD12" t="n">
-        <v>840472.0312106383</v>
+        <v>1045423.234885272</v>
       </c>
       <c r="AE12" t="n">
-        <v>1149970.912111508</v>
+        <v>1430394.190788108</v>
       </c>
       <c r="AF12" t="n">
         <v>4.031274277890285e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>40</v>
+        <v>39.74537037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1040219.302253897</v>
+        <v>1293879.376790146</v>
       </c>
     </row>
     <row r="13">
@@ -13203,28 +13203,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>839.8353708584821</v>
+        <v>1044.786574533116</v>
       </c>
       <c r="AB13" t="n">
-        <v>1149.099805330215</v>
+        <v>1429.523084006816</v>
       </c>
       <c r="AC13" t="n">
-        <v>1039.431332681205</v>
+        <v>1293.091407217454</v>
       </c>
       <c r="AD13" t="n">
-        <v>839835.3708584821</v>
+        <v>1044786.574533116</v>
       </c>
       <c r="AE13" t="n">
-        <v>1149099.805330215</v>
+        <v>1429523.084006816</v>
       </c>
       <c r="AF13" t="n">
         <v>4.03072051240687e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>40</v>
+        <v>39.75694444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>1039431.332681205</v>
+        <v>1293091.407217454</v>
       </c>
     </row>
   </sheetData>
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1170.822943461047</v>
+        <v>1437.307388321255</v>
       </c>
       <c r="AB2" t="n">
-        <v>1601.97160430618</v>
+        <v>1966.587378227894</v>
       </c>
       <c r="AC2" t="n">
-        <v>1449.081682772465</v>
+        <v>1778.899038972544</v>
       </c>
       <c r="AD2" t="n">
-        <v>1170822.943461047</v>
+        <v>1437307.388321255</v>
       </c>
       <c r="AE2" t="n">
-        <v>1601971.60430618</v>
+        <v>1966587.378227894</v>
       </c>
       <c r="AF2" t="n">
         <v>3.705629229309214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.91203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1449081.682772465</v>
+        <v>1778899.038972544</v>
       </c>
     </row>
     <row r="3">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>888.9460319911826</v>
+        <v>1107.764447097656</v>
       </c>
       <c r="AB3" t="n">
-        <v>1216.295178501434</v>
+        <v>1515.692187637269</v>
       </c>
       <c r="AC3" t="n">
-        <v>1100.213673746261</v>
+        <v>1371.036652536513</v>
       </c>
       <c r="AD3" t="n">
-        <v>888946.0319911826</v>
+        <v>1107764.447097656</v>
       </c>
       <c r="AE3" t="n">
-        <v>1216295.178501434</v>
+        <v>1515692.187637269</v>
       </c>
       <c r="AF3" t="n">
         <v>4.509024695865704e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.30555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1100213.673746261</v>
+        <v>1371036.652536513</v>
       </c>
     </row>
     <row r="4">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>800.2218465837973</v>
+        <v>1009.587839508769</v>
       </c>
       <c r="AB4" t="n">
-        <v>1094.898833792241</v>
+        <v>1381.362621887911</v>
       </c>
       <c r="AC4" t="n">
-        <v>990.4032257952739</v>
+        <v>1249.527312009544</v>
       </c>
       <c r="AD4" t="n">
-        <v>800221.8465837972</v>
+        <v>1009587.839508769</v>
       </c>
       <c r="AE4" t="n">
-        <v>1094898.833792242</v>
+        <v>1381362.621887911</v>
       </c>
       <c r="AF4" t="n">
         <v>4.802251097085785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.59722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>990403.2257952739</v>
+        <v>1249527.312009544</v>
       </c>
     </row>
     <row r="5">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>755.1952424807176</v>
+        <v>954.974173608779</v>
       </c>
       <c r="AB5" t="n">
-        <v>1033.29144762483</v>
+        <v>1306.637794818651</v>
       </c>
       <c r="AC5" t="n">
-        <v>934.6755620971711</v>
+        <v>1181.934117558821</v>
       </c>
       <c r="AD5" t="n">
-        <v>755195.2424807176</v>
+        <v>954974.173608779</v>
       </c>
       <c r="AE5" t="n">
-        <v>1033291.447624831</v>
+        <v>1306637.794818651</v>
       </c>
       <c r="AF5" t="n">
         <v>4.951194230842659e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.34722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>934675.5620971711</v>
+        <v>1181934.117558821</v>
       </c>
     </row>
     <row r="6">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>733.1293576166045</v>
+        <v>932.9756085523702</v>
       </c>
       <c r="AB6" t="n">
-        <v>1003.099930475615</v>
+        <v>1276.538387600277</v>
       </c>
       <c r="AC6" t="n">
-        <v>907.3654809706164</v>
+        <v>1154.707355520585</v>
       </c>
       <c r="AD6" t="n">
-        <v>733129.3576166044</v>
+        <v>932975.6085523702</v>
       </c>
       <c r="AE6" t="n">
-        <v>1003099.930475615</v>
+        <v>1276538.387600277</v>
       </c>
       <c r="AF6" t="n">
         <v>5.001589821870478e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.94212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>907365.4809706165</v>
+        <v>1154707.355520586</v>
       </c>
     </row>
     <row r="7">
@@ -14030,28 +14030,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>734.7758448682708</v>
+        <v>934.6220958040366</v>
       </c>
       <c r="AB7" t="n">
-        <v>1005.352726971236</v>
+        <v>1278.791184095898</v>
       </c>
       <c r="AC7" t="n">
-        <v>909.4032737305151</v>
+        <v>1156.745148280484</v>
       </c>
       <c r="AD7" t="n">
-        <v>734775.8448682708</v>
+        <v>934622.0958040366</v>
       </c>
       <c r="AE7" t="n">
-        <v>1005352.726971236</v>
+        <v>1278791.184095898</v>
       </c>
       <c r="AF7" t="n">
         <v>4.997965481419847e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.96527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>909403.2737305152</v>
+        <v>1156745.148280484</v>
       </c>
     </row>
   </sheetData>
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>942.9600670153383</v>
+        <v>1187.281838343813</v>
       </c>
       <c r="AB2" t="n">
-        <v>1290.19956415253</v>
+        <v>1624.491390399976</v>
       </c>
       <c r="AC2" t="n">
-        <v>1167.064728556273</v>
+        <v>1469.452212088188</v>
       </c>
       <c r="AD2" t="n">
-        <v>942960.0670153382</v>
+        <v>1187281.838343813</v>
       </c>
       <c r="AE2" t="n">
-        <v>1290199.56415253</v>
+        <v>1624491.390399976</v>
       </c>
       <c r="AF2" t="n">
         <v>4.638425194147788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.96990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1167064.728556273</v>
+        <v>1469452.212088188</v>
       </c>
     </row>
     <row r="3">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>757.9594290908324</v>
+        <v>955.311710024711</v>
       </c>
       <c r="AB3" t="n">
-        <v>1037.073529692096</v>
+        <v>1307.099627033985</v>
       </c>
       <c r="AC3" t="n">
-        <v>938.0966875601224</v>
+        <v>1182.351873155709</v>
       </c>
       <c r="AD3" t="n">
-        <v>757959.4290908324</v>
+        <v>955311.710024711</v>
       </c>
       <c r="AE3" t="n">
-        <v>1037073.529692096</v>
+        <v>1307099.627033985</v>
       </c>
       <c r="AF3" t="n">
         <v>5.395142386085251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.0949074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>938096.6875601225</v>
+        <v>1182351.873155709</v>
       </c>
     </row>
     <row r="4">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>700.0079142708271</v>
+        <v>897.2918643671442</v>
       </c>
       <c r="AB4" t="n">
-        <v>957.7817104749697</v>
+        <v>1227.714314550363</v>
       </c>
       <c r="AC4" t="n">
-        <v>866.3723682823113</v>
+        <v>1110.542983477538</v>
       </c>
       <c r="AD4" t="n">
-        <v>700007.9142708271</v>
+        <v>897291.8643671442</v>
       </c>
       <c r="AE4" t="n">
-        <v>957781.7104749697</v>
+        <v>1227714.314550363</v>
       </c>
       <c r="AF4" t="n">
         <v>5.618271910782578e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.42824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>866372.3682823112</v>
+        <v>1110542.983477538</v>
       </c>
     </row>
     <row r="5">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>699.6352220420383</v>
+        <v>896.9191721383553</v>
       </c>
       <c r="AB5" t="n">
-        <v>957.2717765255203</v>
+        <v>1227.204380600913</v>
       </c>
       <c r="AC5" t="n">
-        <v>865.9111017133005</v>
+        <v>1110.081716908527</v>
       </c>
       <c r="AD5" t="n">
-        <v>699635.2220420383</v>
+        <v>896919.1721383553</v>
       </c>
       <c r="AE5" t="n">
-        <v>957271.7765255203</v>
+        <v>1227204.380600913</v>
       </c>
       <c r="AF5" t="n">
         <v>5.630831532225523e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.33564814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>865911.1017133004</v>
+        <v>1110081.716908527</v>
       </c>
     </row>
   </sheetData>
@@ -26595,28 +26595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>800.5978046462405</v>
+        <v>1023.872691832334</v>
       </c>
       <c r="AB2" t="n">
-        <v>1095.413236199376</v>
+        <v>1400.90778704022</v>
       </c>
       <c r="AC2" t="n">
-        <v>990.8685343586395</v>
+        <v>1267.207114031529</v>
       </c>
       <c r="AD2" t="n">
-        <v>800597.8046462405</v>
+        <v>1023872.691832334</v>
       </c>
       <c r="AE2" t="n">
-        <v>1095413.236199376</v>
+        <v>1400907.78704022</v>
       </c>
       <c r="AF2" t="n">
         <v>5.558909518324726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.8912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>990868.5343586395</v>
+        <v>1267207.114031529</v>
       </c>
     </row>
     <row r="3">
@@ -26701,28 +26701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>677.7900324775782</v>
+        <v>873.1138630217912</v>
       </c>
       <c r="AB3" t="n">
-        <v>927.3822244216798</v>
+        <v>1194.632906451513</v>
       </c>
       <c r="AC3" t="n">
-        <v>838.8741665120006</v>
+        <v>1080.618818537595</v>
       </c>
       <c r="AD3" t="n">
-        <v>677790.0324775781</v>
+        <v>873113.8630217912</v>
       </c>
       <c r="AE3" t="n">
-        <v>927382.2244216797</v>
+        <v>1194632.906451513</v>
       </c>
       <c r="AF3" t="n">
         <v>6.208841095438456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.08796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>838874.1665120006</v>
+        <v>1080618.818537595</v>
       </c>
     </row>
     <row r="4">
@@ -26807,28 +26807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>667.4385374067551</v>
+        <v>872.0673243387635</v>
       </c>
       <c r="AB4" t="n">
-        <v>913.2188521900478</v>
+        <v>1193.200986055366</v>
       </c>
       <c r="AC4" t="n">
-        <v>826.0625266477377</v>
+        <v>1079.323558614343</v>
       </c>
       <c r="AD4" t="n">
-        <v>667438.5374067551</v>
+        <v>872067.3243387635</v>
       </c>
       <c r="AE4" t="n">
-        <v>913218.8521900477</v>
+        <v>1193200.986055366</v>
       </c>
       <c r="AF4" t="n">
         <v>6.229337411705521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.94907407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>826062.5266477377</v>
+        <v>1079323.558614343</v>
       </c>
     </row>
   </sheetData>
@@ -27104,28 +27104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>633.1285387760722</v>
+        <v>842.7676633388566</v>
       </c>
       <c r="AB2" t="n">
-        <v>866.274398413236</v>
+        <v>1153.111897265478</v>
       </c>
       <c r="AC2" t="n">
-        <v>783.5983856524304</v>
+        <v>1043.060516193172</v>
       </c>
       <c r="AD2" t="n">
-        <v>633128.5387760722</v>
+        <v>842767.6633388565</v>
       </c>
       <c r="AE2" t="n">
-        <v>866274.398413236</v>
+        <v>1153111.897265478</v>
       </c>
       <c r="AF2" t="n">
         <v>7.709823076727092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.76157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>783598.3856524304</v>
+        <v>1043060.516193172</v>
       </c>
     </row>
   </sheetData>
@@ -27401,28 +27401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1432.168439787161</v>
+        <v>1720.680010327191</v>
       </c>
       <c r="AB2" t="n">
-        <v>1959.556042129137</v>
+        <v>2354.310301174185</v>
       </c>
       <c r="AC2" t="n">
-        <v>1772.53876372251</v>
+        <v>2129.618230325381</v>
       </c>
       <c r="AD2" t="n">
-        <v>1432168.439787161</v>
+        <v>1720680.010327191</v>
       </c>
       <c r="AE2" t="n">
-        <v>1959556.042129137</v>
+        <v>2354310.301174185</v>
       </c>
       <c r="AF2" t="n">
         <v>3.054435940938762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.34027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1772538.76372251</v>
+        <v>2129618.230325381</v>
       </c>
     </row>
     <row r="3">
@@ -27507,28 +27507,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1014.232043790661</v>
+        <v>1244.986837758608</v>
       </c>
       <c r="AB3" t="n">
-        <v>1387.717027074229</v>
+        <v>1703.445916364201</v>
       </c>
       <c r="AC3" t="n">
-        <v>1255.275261683343</v>
+        <v>1540.871428907761</v>
       </c>
       <c r="AD3" t="n">
-        <v>1014232.043790661</v>
+        <v>1244986.837758608</v>
       </c>
       <c r="AE3" t="n">
-        <v>1387717.027074229</v>
+        <v>1703445.916364201</v>
       </c>
       <c r="AF3" t="n">
         <v>3.899080023037793e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.48148148148147</v>
       </c>
       <c r="AH3" t="n">
-        <v>1255275.261683343</v>
+        <v>1540871.428907761</v>
       </c>
     </row>
     <row r="4">
@@ -27613,28 +27613,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>910.9506449177868</v>
+        <v>1122.49873392008</v>
       </c>
       <c r="AB4" t="n">
-        <v>1246.402860682622</v>
+        <v>1535.852288898567</v>
       </c>
       <c r="AC4" t="n">
-        <v>1127.447920996474</v>
+        <v>1389.272702028313</v>
       </c>
       <c r="AD4" t="n">
-        <v>910950.6449177868</v>
+        <v>1122498.73392008</v>
       </c>
       <c r="AE4" t="n">
-        <v>1246402.860682622</v>
+        <v>1535852.288898567</v>
       </c>
       <c r="AF4" t="n">
         <v>4.204899432073648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.10185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1127447.920996474</v>
+        <v>1389272.702028313</v>
       </c>
     </row>
     <row r="5">
@@ -27719,28 +27719,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>851.5977598200919</v>
+        <v>1053.626898856653</v>
       </c>
       <c r="AB5" t="n">
-        <v>1165.193624827467</v>
+        <v>1441.618805753863</v>
       </c>
       <c r="AC5" t="n">
-        <v>1053.989180633456</v>
+        <v>1304.032730257416</v>
       </c>
       <c r="AD5" t="n">
-        <v>851597.7598200919</v>
+        <v>1053626.898856653</v>
       </c>
       <c r="AE5" t="n">
-        <v>1165193.624827467</v>
+        <v>1441618.805753863</v>
       </c>
       <c r="AF5" t="n">
         <v>4.366343267565696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.50462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1053989.180633456</v>
+        <v>1304032.730257416</v>
       </c>
     </row>
     <row r="6">
@@ -27825,28 +27825,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>812.7260805998383</v>
+        <v>1014.721054217619</v>
       </c>
       <c r="AB6" t="n">
-        <v>1112.00767842086</v>
+        <v>1388.386112714009</v>
       </c>
       <c r="AC6" t="n">
-        <v>1005.879226304952</v>
+        <v>1255.880490728731</v>
       </c>
       <c r="AD6" t="n">
-        <v>812726.0805998383</v>
+        <v>1014721.054217619</v>
       </c>
       <c r="AE6" t="n">
-        <v>1112007.67842086</v>
+        <v>1388386.112714009</v>
       </c>
       <c r="AF6" t="n">
         <v>4.470788503524177e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.54398148148149</v>
       </c>
       <c r="AH6" t="n">
-        <v>1005879.226304952</v>
+        <v>1255880.490728731</v>
       </c>
     </row>
     <row r="7">
@@ -27931,28 +27931,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>779.7690879157615</v>
+        <v>981.729896114761</v>
       </c>
       <c r="AB7" t="n">
-        <v>1066.914467070605</v>
+        <v>1343.246154730505</v>
       </c>
       <c r="AC7" t="n">
-        <v>965.0896477572447</v>
+        <v>1215.048626980844</v>
       </c>
       <c r="AD7" t="n">
-        <v>779769.0879157615</v>
+        <v>981729.896114761</v>
       </c>
       <c r="AE7" t="n">
-        <v>1066914.467070605</v>
+        <v>1343246.154730505</v>
       </c>
       <c r="AF7" t="n">
         <v>4.533111148069118e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.97685185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>965089.6477572448</v>
+        <v>1215048.626980844</v>
       </c>
     </row>
     <row r="8">
@@ -28037,28 +28037,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>775.0151761944421</v>
+        <v>976.9759843934415</v>
       </c>
       <c r="AB8" t="n">
-        <v>1060.409955325712</v>
+        <v>1336.741642985613</v>
       </c>
       <c r="AC8" t="n">
-        <v>959.2059174841453</v>
+        <v>1209.164896707744</v>
       </c>
       <c r="AD8" t="n">
-        <v>775015.1761944421</v>
+        <v>976975.9843934416</v>
       </c>
       <c r="AE8" t="n">
-        <v>1060409.955325712</v>
+        <v>1336741.642985613</v>
       </c>
       <c r="AF8" t="n">
         <v>4.552841432523045e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.80324074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>959205.9174841453</v>
+        <v>1209164.896707744</v>
       </c>
     </row>
     <row r="9">
@@ -28143,28 +28143,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>776.1020231650634</v>
+        <v>978.0628313640628</v>
       </c>
       <c r="AB9" t="n">
-        <v>1061.897027299221</v>
+        <v>1338.228714959121</v>
       </c>
       <c r="AC9" t="n">
-        <v>960.5510653956205</v>
+        <v>1210.51004461922</v>
       </c>
       <c r="AD9" t="n">
-        <v>776102.0231650635</v>
+        <v>978062.8313640628</v>
       </c>
       <c r="AE9" t="n">
-        <v>1061897.027299221</v>
+        <v>1338228.714959121</v>
       </c>
       <c r="AF9" t="n">
         <v>4.550335999576514e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.82638888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>960551.0653956205</v>
+        <v>1210510.04461922</v>
       </c>
     </row>
   </sheetData>
@@ -28440,28 +28440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1839.93964360262</v>
+        <v>2180.642820518656</v>
       </c>
       <c r="AB2" t="n">
-        <v>2517.486592785319</v>
+        <v>2983.651710205187</v>
       </c>
       <c r="AC2" t="n">
-        <v>2277.221205684512</v>
+        <v>2698.896178564679</v>
       </c>
       <c r="AD2" t="n">
-        <v>1839939.64360262</v>
+        <v>2180642.820518656</v>
       </c>
       <c r="AE2" t="n">
-        <v>2517486.592785319</v>
+        <v>2983651.710205187</v>
       </c>
       <c r="AF2" t="n">
         <v>2.417280099691265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.75462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2277221.205684512</v>
+        <v>2698896.178564679</v>
       </c>
     </row>
     <row r="3">
@@ -28546,28 +28546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1196.942807788415</v>
+        <v>1450.019025567811</v>
       </c>
       <c r="AB3" t="n">
-        <v>1637.709955005972</v>
+        <v>1983.980001106489</v>
       </c>
       <c r="AC3" t="n">
-        <v>1481.40921544056</v>
+        <v>1794.631734334305</v>
       </c>
       <c r="AD3" t="n">
-        <v>1196942.807788415</v>
+        <v>1450019.025567811</v>
       </c>
       <c r="AE3" t="n">
-        <v>1637709.955005972</v>
+        <v>1983980.001106489</v>
       </c>
       <c r="AF3" t="n">
         <v>3.286335026658238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.83796296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>1481409.21544056</v>
+        <v>1794631.734334305</v>
       </c>
     </row>
     <row r="4">
@@ -28652,28 +28652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1048.9493020803</v>
+        <v>1272.783379091893</v>
       </c>
       <c r="AB4" t="n">
-        <v>1435.218711483452</v>
+        <v>1741.478370513259</v>
       </c>
       <c r="AC4" t="n">
-        <v>1298.243452001584</v>
+        <v>1575.274119011716</v>
       </c>
       <c r="AD4" t="n">
-        <v>1048949.3020803</v>
+        <v>1272783.379091893</v>
       </c>
       <c r="AE4" t="n">
-        <v>1435218.711483452</v>
+        <v>1741478.370513259</v>
       </c>
       <c r="AF4" t="n">
         <v>3.623939236320107e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.18518518518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>1298243.452001584</v>
+        <v>1575274.119011716</v>
       </c>
     </row>
     <row r="5">
@@ -28758,28 +28758,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>980.0038751749752</v>
+        <v>1194.101623393608</v>
       </c>
       <c r="AB5" t="n">
-        <v>1340.884536734021</v>
+        <v>1633.822521172788</v>
       </c>
       <c r="AC5" t="n">
-        <v>1212.912398491392</v>
+        <v>1477.892792836367</v>
       </c>
       <c r="AD5" t="n">
-        <v>980003.8751749751</v>
+        <v>1194101.623393608</v>
       </c>
       <c r="AE5" t="n">
-        <v>1340884.536734021</v>
+        <v>1633822.521172788</v>
       </c>
       <c r="AF5" t="n">
         <v>3.796420179982226e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.13657407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>1212912.398491392</v>
+        <v>1477892.792836367</v>
       </c>
     </row>
     <row r="6">
@@ -28864,28 +28864,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>928.0810429408217</v>
+        <v>1142.211945548378</v>
       </c>
       <c r="AB6" t="n">
-        <v>1269.841426997561</v>
+        <v>1562.824774733922</v>
       </c>
       <c r="AC6" t="n">
-        <v>1148.64954343855</v>
+        <v>1413.670971671664</v>
       </c>
       <c r="AD6" t="n">
-        <v>928081.0429408217</v>
+        <v>1142211.945548378</v>
       </c>
       <c r="AE6" t="n">
-        <v>1269841.426997561</v>
+        <v>1562824.774733922</v>
       </c>
       <c r="AF6" t="n">
         <v>3.906643851116591e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.9212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1148649.54343855</v>
+        <v>1413670.971671664</v>
       </c>
     </row>
     <row r="7">
@@ -28970,28 +28970,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>902.3386750794323</v>
+        <v>1106.700094505106</v>
       </c>
       <c r="AB7" t="n">
-        <v>1234.61958361649</v>
+        <v>1514.235893464219</v>
       </c>
       <c r="AC7" t="n">
-        <v>1116.789223355601</v>
+        <v>1369.719345035418</v>
       </c>
       <c r="AD7" t="n">
-        <v>902338.6750794323</v>
+        <v>1106700.094505106</v>
       </c>
       <c r="AE7" t="n">
-        <v>1234619.58361649</v>
+        <v>1514235.893464219</v>
       </c>
       <c r="AF7" t="n">
         <v>3.985031416981082e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.09953703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>1116789.223355601</v>
+        <v>1369719.345035417</v>
       </c>
     </row>
     <row r="8">
@@ -29076,28 +29076,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>875.3001043046296</v>
+        <v>1079.728843538007</v>
       </c>
       <c r="AB8" t="n">
-        <v>1197.62421822485</v>
+        <v>1477.33263800342</v>
       </c>
       <c r="AC8" t="n">
-        <v>1083.324643713617</v>
+        <v>1336.338084481753</v>
       </c>
       <c r="AD8" t="n">
-        <v>875300.1043046296</v>
+        <v>1079728.843538007</v>
       </c>
       <c r="AE8" t="n">
-        <v>1197624.21822485</v>
+        <v>1477332.638003421</v>
       </c>
       <c r="AF8" t="n">
         <v>4.032997815587692e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.60185185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>1083324.643713617</v>
+        <v>1336338.084481753</v>
       </c>
     </row>
     <row r="9">
@@ -29182,28 +29182,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>855.4251611316529</v>
+        <v>1050.084417183147</v>
       </c>
       <c r="AB9" t="n">
-        <v>1170.430444154974</v>
+        <v>1436.771826044911</v>
       </c>
       <c r="AC9" t="n">
-        <v>1058.726205274268</v>
+        <v>1299.648339489107</v>
       </c>
       <c r="AD9" t="n">
-        <v>855425.1611316529</v>
+        <v>1050084.417183147</v>
       </c>
       <c r="AE9" t="n">
-        <v>1170430.444154974</v>
+        <v>1436771.826044911</v>
       </c>
       <c r="AF9" t="n">
         <v>4.079266288579911e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.15046296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>1058726.205274268</v>
+        <v>1299648.339489107</v>
       </c>
     </row>
     <row r="10">
@@ -29288,28 +29288,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>830.2210992888887</v>
+        <v>1034.615673103486</v>
       </c>
       <c r="AB10" t="n">
-        <v>1135.945134816971</v>
+        <v>1415.606807962293</v>
       </c>
       <c r="AC10" t="n">
-        <v>1027.532125459049</v>
+        <v>1280.503281027005</v>
       </c>
       <c r="AD10" t="n">
-        <v>830221.0992888887</v>
+        <v>1034615.673103485</v>
       </c>
       <c r="AE10" t="n">
-        <v>1135945.134816971</v>
+        <v>1415606.807962293</v>
       </c>
       <c r="AF10" t="n">
         <v>4.110394924843787e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.83796296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>1027532.125459049</v>
+        <v>1280503.281027005</v>
       </c>
     </row>
     <row r="11">
@@ -29394,28 +29394,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>824.8706570640926</v>
+        <v>1029.265230878689</v>
       </c>
       <c r="AB11" t="n">
-        <v>1128.624423720153</v>
+        <v>1408.286096865475</v>
       </c>
       <c r="AC11" t="n">
-        <v>1020.910092754629</v>
+        <v>1273.881248322585</v>
       </c>
       <c r="AD11" t="n">
-        <v>824870.6570640926</v>
+        <v>1029265.230878689</v>
       </c>
       <c r="AE11" t="n">
-        <v>1128624.423720153</v>
+        <v>1408286.096865475</v>
       </c>
       <c r="AF11" t="n">
         <v>4.120723972331347e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>39.74537037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1020910.092754629</v>
+        <v>1273881.248322585</v>
       </c>
     </row>
     <row r="12">
@@ -29500,28 +29500,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>826.1498428969444</v>
+        <v>1030.544416711541</v>
       </c>
       <c r="AB12" t="n">
-        <v>1130.374662210357</v>
+        <v>1410.03633535568</v>
       </c>
       <c r="AC12" t="n">
-        <v>1022.493290939803</v>
+        <v>1275.464446507759</v>
       </c>
       <c r="AD12" t="n">
-        <v>826149.8428969444</v>
+        <v>1030544.416711541</v>
       </c>
       <c r="AE12" t="n">
-        <v>1130374.662210357</v>
+        <v>1410036.33535568</v>
       </c>
       <c r="AF12" t="n">
         <v>4.121855922740942e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>40</v>
+        <v>39.7337962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>1022493.290939803</v>
+        <v>1275464.446507759</v>
       </c>
     </row>
   </sheetData>
@@ -29797,28 +29797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>643.5345024420295</v>
+        <v>860.1450818012358</v>
       </c>
       <c r="AB2" t="n">
-        <v>880.5122969797153</v>
+        <v>1176.888447843301</v>
       </c>
       <c r="AC2" t="n">
-        <v>796.4774391627412</v>
+        <v>1064.567866154446</v>
       </c>
       <c r="AD2" t="n">
-        <v>643534.5024420295</v>
+        <v>860145.0818012358</v>
       </c>
       <c r="AE2" t="n">
-        <v>880512.2969797153</v>
+        <v>1176888.447843301</v>
       </c>
       <c r="AF2" t="n">
         <v>8.436445686448395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.09490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>796477.4391627412</v>
+        <v>1064567.866154446</v>
       </c>
     </row>
   </sheetData>
@@ -30094,28 +30094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1021.065672432</v>
+        <v>1266.552311386597</v>
       </c>
       <c r="AB2" t="n">
-        <v>1397.067099259727</v>
+        <v>1732.952748783566</v>
       </c>
       <c r="AC2" t="n">
-        <v>1263.732976102367</v>
+        <v>1567.562170654121</v>
       </c>
       <c r="AD2" t="n">
-        <v>1021065.672432</v>
+        <v>1266552.311386597</v>
       </c>
       <c r="AE2" t="n">
-        <v>1397067.099259727</v>
+        <v>1732952.748783567</v>
       </c>
       <c r="AF2" t="n">
         <v>4.28060743217517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.60185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1263732.976102367</v>
+        <v>1567562.170654121</v>
       </c>
     </row>
     <row r="3">
@@ -30200,28 +30200,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>796.22328107254</v>
+        <v>1003.937488585079</v>
       </c>
       <c r="AB3" t="n">
-        <v>1089.427820055479</v>
+        <v>1373.631562478228</v>
       </c>
       <c r="AC3" t="n">
-        <v>985.4543579309322</v>
+        <v>1242.534094059312</v>
       </c>
       <c r="AD3" t="n">
-        <v>796223.28107254</v>
+        <v>1003937.488585079</v>
       </c>
       <c r="AE3" t="n">
-        <v>1089427.820055479</v>
+        <v>1373631.562478228</v>
       </c>
       <c r="AF3" t="n">
         <v>5.055922488199553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.83564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>985454.3579309322</v>
+        <v>1242534.094059312</v>
       </c>
     </row>
     <row r="4">
@@ -30306,28 +30306,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>724.6398543819604</v>
+        <v>922.9109540339847</v>
       </c>
       <c r="AB4" t="n">
-        <v>991.4842176195256</v>
+        <v>1262.767483267002</v>
       </c>
       <c r="AC4" t="n">
-        <v>896.8583554467566</v>
+        <v>1142.250726969293</v>
       </c>
       <c r="AD4" t="n">
-        <v>724639.8543819604</v>
+        <v>922910.9540339847</v>
       </c>
       <c r="AE4" t="n">
-        <v>991484.2176195256</v>
+        <v>1262767.483267002</v>
       </c>
       <c r="AF4" t="n">
         <v>5.335320358980243e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.60185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>896858.3554467566</v>
+        <v>1142250.726969293</v>
       </c>
     </row>
     <row r="5">
@@ -30412,28 +30412,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>713.4498222939353</v>
+        <v>902.2446596965217</v>
       </c>
       <c r="AB5" t="n">
-        <v>976.1735220473157</v>
+        <v>1234.490947621926</v>
       </c>
       <c r="AC5" t="n">
-        <v>883.0088911712623</v>
+        <v>1116.672864199816</v>
       </c>
       <c r="AD5" t="n">
-        <v>713449.8222939353</v>
+        <v>902244.6596965217</v>
       </c>
       <c r="AE5" t="n">
-        <v>976173.5220473157</v>
+        <v>1234490.947621926</v>
       </c>
       <c r="AF5" t="n">
         <v>5.388841987274468e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.19675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>883008.8911712624</v>
+        <v>1116672.864199816</v>
       </c>
     </row>
   </sheetData>
@@ -30709,28 +30709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1255.903752962445</v>
+        <v>1532.928912649427</v>
       </c>
       <c r="AB2" t="n">
-        <v>1718.3829213664</v>
+        <v>2097.420966337624</v>
       </c>
       <c r="AC2" t="n">
-        <v>1554.382867116767</v>
+        <v>1897.246053059176</v>
       </c>
       <c r="AD2" t="n">
-        <v>1255903.752962445</v>
+        <v>1532928.912649427</v>
       </c>
       <c r="AE2" t="n">
-        <v>1718382.9213664</v>
+        <v>2097420.966337624</v>
       </c>
       <c r="AF2" t="n">
         <v>3.463181337003429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.69444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>1554382.867116767</v>
+        <v>1897246.053059176</v>
       </c>
     </row>
     <row r="3">
@@ -30815,28 +30815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>933.8399402093262</v>
+        <v>1153.502257812651</v>
       </c>
       <c r="AB3" t="n">
-        <v>1277.721004304946</v>
+        <v>1578.272678067324</v>
       </c>
       <c r="AC3" t="n">
-        <v>1155.777104946774</v>
+        <v>1427.644548792194</v>
       </c>
       <c r="AD3" t="n">
-        <v>933839.9402093262</v>
+        <v>1153502.257812651</v>
       </c>
       <c r="AE3" t="n">
-        <v>1277721.004304946</v>
+        <v>1578272.678067324</v>
       </c>
       <c r="AF3" t="n">
         <v>4.28535988277521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.01157407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1155777.104946774</v>
+        <v>1427644.548792194</v>
       </c>
     </row>
     <row r="4">
@@ -30921,28 +30921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>840.755196991543</v>
+        <v>1041.341784115405</v>
       </c>
       <c r="AB4" t="n">
-        <v>1150.358352025334</v>
+        <v>1424.809769783876</v>
       </c>
       <c r="AC4" t="n">
-        <v>1040.569765446123</v>
+        <v>1288.827925088774</v>
       </c>
       <c r="AD4" t="n">
-        <v>840755.1969915431</v>
+        <v>1041341.784115405</v>
       </c>
       <c r="AE4" t="n">
-        <v>1150358.352025334</v>
+        <v>1424809.769783876</v>
       </c>
       <c r="AF4" t="n">
         <v>4.580304355011945e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.10648148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>1040569.765446123</v>
+        <v>1288827.925088774</v>
       </c>
     </row>
     <row r="5">
@@ -31027,28 +31027,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>784.7550363719012</v>
+        <v>985.3747778846864</v>
       </c>
       <c r="AB5" t="n">
-        <v>1073.736461712816</v>
+        <v>1348.233242768952</v>
       </c>
       <c r="AC5" t="n">
-        <v>971.2605608055335</v>
+        <v>1219.559754336324</v>
       </c>
       <c r="AD5" t="n">
-        <v>784755.0363719012</v>
+        <v>985374.7778846864</v>
       </c>
       <c r="AE5" t="n">
-        <v>1073736.461712816</v>
+        <v>1348233.242768952</v>
       </c>
       <c r="AF5" t="n">
         <v>4.737774708833253e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.70601851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>971260.5608055334</v>
+        <v>1219559.754336324</v>
       </c>
     </row>
     <row r="6">
@@ -31133,28 +31133,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>749.3037647021488</v>
+        <v>949.8893407961532</v>
       </c>
       <c r="AB6" t="n">
-        <v>1025.230467814537</v>
+        <v>1299.680502237425</v>
       </c>
       <c r="AC6" t="n">
-        <v>927.3839108863157</v>
+        <v>1175.640819216926</v>
       </c>
       <c r="AD6" t="n">
-        <v>749303.7647021487</v>
+        <v>949889.3407961532</v>
       </c>
       <c r="AE6" t="n">
-        <v>1025230.467814537</v>
+        <v>1299680.502237425</v>
       </c>
       <c r="AF6" t="n">
         <v>4.825591509324078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.96527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>927383.9108863156</v>
+        <v>1175640.819216926</v>
       </c>
     </row>
     <row r="7">
@@ -31239,28 +31239,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>748.0521217950833</v>
+        <v>948.6376978890877</v>
       </c>
       <c r="AB7" t="n">
-        <v>1023.517914770502</v>
+        <v>1297.96794919339</v>
       </c>
       <c r="AC7" t="n">
-        <v>925.8348015012201</v>
+        <v>1174.09170983183</v>
       </c>
       <c r="AD7" t="n">
-        <v>748052.1217950833</v>
+        <v>948637.6978890877</v>
       </c>
       <c r="AE7" t="n">
-        <v>1023517.914770502</v>
+        <v>1297967.94919339</v>
       </c>
       <c r="AF7" t="n">
         <v>4.836589438797312e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.87268518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>925834.8015012201</v>
+        <v>1174091.70983183</v>
       </c>
     </row>
   </sheetData>
